--- a/BOMs/BOM_Main_PCB_RTC_Solar.xlsx
+++ b/BOMs/BOM_Main_PCB_RTC_Solar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\git\Hardware Projects\Weather_Station\BOMs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF8102C9-D63F-488B-97C4-C7DA6910DB1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA37EB1D-C26D-4F55-A2F1-D600B156B6B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="23520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -367,7 +367,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -375,13 +375,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -393,14 +405,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Gut" xfId="1" builtinId="26"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
@@ -718,7 +732,7 @@
   <dimension ref="A1:D48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -749,7 +763,7 @@
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -763,7 +777,7 @@
       <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -777,7 +791,7 @@
       <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>2</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -791,7 +805,7 @@
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>2</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -805,7 +819,7 @@
       <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>2</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -819,7 +833,7 @@
       <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>2</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -833,7 +847,7 @@
       <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -847,7 +861,7 @@
       <c r="B9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>2</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -861,7 +875,7 @@
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>2</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -875,7 +889,7 @@
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <v>1</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -889,7 +903,7 @@
       <c r="B12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="1">
         <v>2</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -903,7 +917,7 @@
       <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="1">
         <v>1</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -917,7 +931,7 @@
       <c r="B14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="1">
         <v>1</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -931,7 +945,7 @@
       <c r="B15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="1">
         <v>1</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -945,7 +959,7 @@
       <c r="B16" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="1">
         <v>1</v>
       </c>
       <c r="D16" s="1" t="s">
@@ -959,7 +973,7 @@
       <c r="B17" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="1">
         <v>2</v>
       </c>
       <c r="D17" s="1" t="s">
@@ -973,7 +987,7 @@
       <c r="B18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="1">
         <v>1</v>
       </c>
       <c r="D18" s="1" t="s">
@@ -987,7 +1001,7 @@
       <c r="B19" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="1">
         <v>1</v>
       </c>
       <c r="D19" s="1" t="s">
@@ -1001,7 +1015,7 @@
       <c r="B20" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="1">
         <v>2</v>
       </c>
       <c r="D20" s="1" t="s">
@@ -1015,7 +1029,7 @@
       <c r="B21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="1">
         <v>1</v>
       </c>
       <c r="D21" s="1" t="s">
@@ -1029,7 +1043,7 @@
       <c r="B22" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="1">
         <v>1</v>
       </c>
       <c r="D22" s="1" t="s">
@@ -1043,7 +1057,7 @@
       <c r="B23" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="1">
         <v>2</v>
       </c>
       <c r="D23" s="1" t="s">
@@ -1057,7 +1071,7 @@
       <c r="B24" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="1">
         <v>2</v>
       </c>
       <c r="D24" s="1" t="s">
@@ -1071,7 +1085,7 @@
       <c r="B25" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="1">
         <v>2</v>
       </c>
       <c r="D25" s="1" t="s">
@@ -1085,7 +1099,7 @@
       <c r="B26" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="1">
         <v>1</v>
       </c>
       <c r="D26" s="1" t="s">
@@ -1099,7 +1113,7 @@
       <c r="B27" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="1">
         <v>1</v>
       </c>
       <c r="D27" s="1" t="s">
@@ -1113,7 +1127,7 @@
       <c r="B28" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="1">
         <v>1</v>
       </c>
       <c r="D28" s="1" t="s">
@@ -1127,7 +1141,7 @@
       <c r="B29" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="1">
         <v>1</v>
       </c>
       <c r="D29" s="1" t="s">
@@ -1141,7 +1155,7 @@
       <c r="B30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="1">
         <v>2</v>
       </c>
       <c r="D30" s="1" t="s">
@@ -1155,7 +1169,7 @@
       <c r="B31" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="1">
         <v>1</v>
       </c>
       <c r="D31" s="1" t="s">
@@ -1169,7 +1183,7 @@
       <c r="B32" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="1">
         <v>1</v>
       </c>
       <c r="D32" s="1" t="s">
@@ -1183,7 +1197,7 @@
       <c r="B33" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="1">
         <v>6</v>
       </c>
       <c r="D33" s="1" t="s">
@@ -1197,7 +1211,7 @@
       <c r="B34" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="1">
         <v>1</v>
       </c>
       <c r="D34" s="1" t="s">
@@ -1211,7 +1225,7 @@
       <c r="B35" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="1">
         <v>1</v>
       </c>
       <c r="D35" s="1" t="s">
@@ -1225,7 +1239,7 @@
       <c r="B36" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="1">
         <v>4</v>
       </c>
       <c r="D36" s="1" t="s">
@@ -1239,7 +1253,7 @@
       <c r="B37" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="1">
         <v>3</v>
       </c>
       <c r="D37" s="1" t="s">
@@ -1253,7 +1267,7 @@
       <c r="B38" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="1">
         <v>2</v>
       </c>
       <c r="D38" s="1" t="s">
@@ -1267,7 +1281,7 @@
       <c r="B39" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="1">
         <v>1</v>
       </c>
       <c r="D39" s="1" t="s">
@@ -1281,7 +1295,7 @@
       <c r="B40" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="1">
         <v>1</v>
       </c>
       <c r="D40" s="1" t="s">
@@ -1295,7 +1309,7 @@
       <c r="B41" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="1">
         <v>1</v>
       </c>
       <c r="D41" s="1" t="s">
@@ -1309,7 +1323,7 @@
       <c r="B42" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="1">
         <v>1</v>
       </c>
       <c r="D42" s="1" t="s">
@@ -1323,7 +1337,7 @@
       <c r="B43" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="1">
         <v>1</v>
       </c>
       <c r="D43" s="1" t="s">
@@ -1337,7 +1351,7 @@
       <c r="B44" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="1">
         <v>1</v>
       </c>
       <c r="D44" s="1" t="s">
@@ -1351,7 +1365,7 @@
       <c r="B45" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="1">
         <v>1</v>
       </c>
       <c r="D45" s="1" t="s">
@@ -1365,7 +1379,7 @@
       <c r="B46" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="1">
         <v>1</v>
       </c>
       <c r="D46" s="1" t="s">
@@ -1379,7 +1393,7 @@
       <c r="B47" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="1">
         <v>1</v>
       </c>
       <c r="D47" s="1" t="s">
@@ -1393,7 +1407,7 @@
       <c r="B48" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="1">
         <v>1</v>
       </c>
       <c r="D48" s="1" t="s">
